--- a/biology/Médecine/Narcisse_Théophile_Patouillard/Narcisse_Théophile_Patouillard.xlsx
+++ b/biology/Médecine/Narcisse_Théophile_Patouillard/Narcisse_Théophile_Patouillard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Narcisse_Th%C3%A9ophile_Patouillard</t>
+          <t>Narcisse_Théophile_Patouillard</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Narcisse Théophile Patouillard est un pharmacien et un mycologue français, né le 2 juillet 1854 à Macornay et mort le 30 mars 1926 à Paris, à l'âge de 72 ans.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Narcisse_Th%C3%A9ophile_Patouillard</t>
+          <t>Narcisse_Théophile_Patouillard</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,17 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né dans une famille de modestes agriculteurs, le jeune Narcisse Patouillard se passionne pour les sciences naturelles à partir de l'âge de dix ans, collectionnant les insectes, les plantes et les minéraux. Contraint d'interrompre ses études secondaires au lycée de Lons-le-Saunier[1], il entre en 1869 aux services télégraphiques du Jura puis de Paris. En 1872, il réussit un stage à Bletterans (Jura) qui lui permet de travailler au Laboratoire des Hautes-Études du Muséum national d'histoire naturelle. C'est là, avec l'aide cordiale des botanistes de cette institution, que s'affirmera sa vocation et sa décision de se consacrer à l'étude des champignons.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né dans une famille de modestes agriculteurs, le jeune Narcisse Patouillard se passionne pour les sciences naturelles à partir de l'âge de dix ans, collectionnant les insectes, les plantes et les minéraux. Contraint d'interrompre ses études secondaires au lycée de Lons-le-Saunier, il entre en 1869 aux services télégraphiques du Jura puis de Paris. En 1872, il réussit un stage à Bletterans (Jura) qui lui permet de travailler au Laboratoire des Hautes-Études du Muséum national d'histoire naturelle. C'est là, avec l'aide cordiale des botanistes de cette institution, que s'affirmera sa vocation et sa décision de se consacrer à l'étude des champignons.
 Mais il lui faut survivre, car il n'a pas de famille aisée pour subvenir à ses besoins. Pour cela, il obtient le diplôme de pharmacien de 2e classe en 1879 à Besançon puis, dispensé de baccalauréat, s'inscrit en 1883 à la faculté de pharmacie de Paris pour obtenir le diplôme de pharmacien de 1re classe en mars 1884 avec une thèse intitulée : « Des Hyménomycètes au point de vue de leur structure et de leur classification ».
 En 1884, il est un des quinze pharmaciens fondateurs de la Société mycologique de France, dont il sera le troisième président, à la suite de Quélet et de Boudier, en 1891 et 1892, puis le président honoraire à la séance du 8 décembre 1892.
 En 1885, il obtient le prix Montaigne, décerné par l'Académie des sciences pour ses Tabulae analyticae fungorum: Descriptions et analyses microscopiques des champignons nouveaux, rares ou critiques, publiés en sept fascicules de 1883 à 1889.
 Pharmacien d'officine pendant plus de quarante ans, il exerce à Poligny de 1881 à 1884, à Fontenay-sous-Bois de 1884 à 1885, puis à Paris de 1886 à 1898 et, enfin, à Neuilly à partir de 1898. De 1893 à 1900, il exerce les fonctions de préparateur de la chaire de Cryptogamie de l'école supérieure de pharmacie de Paris, ce qui lui permet de préparer sa thèse pour le doctorat de l'université de Paris (École supérieure de pharmacie) « Essai taxonomique sur les familles et les genres des Hyménomycètes » (1900) portant sur la classification des Basidiomycètes.
 En 1920, il devient membre honoraire de la British Mycological Society. En 1922, renonçant aux fonctions de préparateur afin de se consacrer pleinement à ses recherches, il est nommé assistant de la chaire de Cryptogamie du Muséum, mais meurt en 1926. En 1968, près de trois mille de ses planches de notes, dessins et aquarelles de grande précision furent léguées par sa fille à la chaire de cryptogamie du Muséum.
-À la différence de celle de son confrère Émile Boudier, l'œuvre scientifique de Narcisse Patouillard reste peu connue, mais les mycologues lui rendent hommage à leur manière : la plupart des taxons de Patouillard sont toujours valides après plus d'un siècle, prouvant la pertinence de sa taxinomie. Lorsque l'université américaine de Harvard à Cambridge fait l'acquisition de toute la partie de son herbier, antérieure à 1905, le Muséum reconnut cette pertinence et intégra le reste de sa collection dans l'herbier général du Muséum situé dans la galerie de Botanique[2]. 
+À la différence de celle de son confrère Émile Boudier, l'œuvre scientifique de Narcisse Patouillard reste peu connue, mais les mycologues lui rendent hommage à leur manière : la plupart des taxons de Patouillard sont toujours valides après plus d'un siècle, prouvant la pertinence de sa taxinomie. Lorsque l'université américaine de Harvard à Cambridge fait l'acquisition de toute la partie de son herbier, antérieure à 1905, le Muséum reconnut cette pertinence et intégra le reste de sa collection dans l'herbier général du Muséum situé dans la galerie de Botanique. 
 Le 26 septembre 1976, une cérémonie mémorielle eut lieu en son honneur, à l'initiative de la Société mycologique de France, dans sa commune natale de Macornay : une plaque y fut apposée.
 </t>
         </is>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Narcisse_Th%C3%A9ophile_Patouillard</t>
+          <t>Narcisse_Théophile_Patouillard</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,14 +563,50 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Narcisse Patouillard était très travailleur sur le plan qualitatif (précision des descriptions et pertinence des définitions) et quantitatif (près de 250 publications). Sa grande connaissance des milieux tropicaux est attestée par plus d'une centaine de travaux consacrés aux champignons du Brésil, Chili, Argentine, Mexique, Costa Rica, Cuba, Venezuela, Équateur, Guyane, Louisiane, Guadeloupe, Martinique, Algérie, Tunisie, Congo, Chine, Tibet, Tonkin, Indes, Java, Japon, Philippines, îles Gambier et Nouvelle-Calédonie.
 Ces nombreux matériaux extra-Européens, qu'il a très précisément décrits et figurés, et ses remarquables analyses microscopiques lui permettent de proposer une nouvelle classification des Basidiomycètes, qu'il divise en Hétérobasidiés et Homobasidiés, eux-mêmes divisés en fonction de leur hyménium en Angiocarpes, Hémiangiocarpes et Gymnocarpes, utilisée dans le monde durant tout le XXe siècle. La pertinence de ses vues fut confirmée par les analyses cytologiques, chimiques et biologiques des mycologues modernes, notamment l'indépendance du groupe des Polypores vrais identifié par Patouillard, ainsi que leur parenté avec les Lentins.
 Georges Becker, dans sa Petite histoire de la Mycologie appréciait Patouillard ainsi : 
-« Ce qu'on appelle la Mycologie moderne a dû son essor à un très grand esprit : Narcisse Patouillard. Ce Jurassien obstiné, dont les connaissances n'étaient peut-être pas plus étendues que celles de ses contemporains, avait sur eux une supériorité incontestable : la largeur de l'intelligence.  Je veux dire qu'il ne négligeait rien et n'avait aucune idée préconçue. Paul Valéry, dans Eupalinos, prétend qu'il n'y a pas de détails en architecture. Pour Patouillard, il n'y avait pas de détails en Mycologie. Il a examiné avec patience les éléments les plus négligés des champignons : poils, cystides, écailles, cuticule, lacticifères et en a tiré des conclusions qui ont bouleversé toutes les idées admises. Il est le premier à avoir compris les Bolets. Il a débrouillé le chaos des Tomentelles, des Auriculaires, des Stéréums. Il a expliqué les mystérieux Ptychogasters. Il a épuisé les Lépiotes, il a classé les Polypores, inventé quantité d'espèces et de genres aujourd'hui évidents. Sa mort, en 1926, a été ressentie comme une perte irréparable ».
-Principales publications
-Doassans, J.E. &amp; Patouillard, N. (1883). Les Champignons figurés et desséchés : Tome 1-2, Paris 1882, 1883.
+« Ce qu'on appelle la Mycologie moderne a dû son essor à un très grand esprit : Narcisse Patouillard. Ce Jurassien obstiné, dont les connaissances n'étaient peut-être pas plus étendues que celles de ses contemporains, avait sur eux une supériorité incontestable : la largeur de l'intelligence.  Je veux dire qu'il ne négligeait rien et n'avait aucune idée préconçue. Paul Valéry, dans Eupalinos, prétend qu'il n'y a pas de détails en architecture. Pour Patouillard, il n'y avait pas de détails en Mycologie. Il a examiné avec patience les éléments les plus négligés des champignons : poils, cystides, écailles, cuticule, lacticifères et en a tiré des conclusions qui ont bouleversé toutes les idées admises. Il est le premier à avoir compris les Bolets. Il a débrouillé le chaos des Tomentelles, des Auriculaires, des Stéréums. Il a expliqué les mystérieux Ptychogasters. Il a épuisé les Lépiotes, il a classé les Polypores, inventé quantité d'espèces et de genres aujourd'hui évidents. Sa mort, en 1926, a été ressentie comme une perte irréparable ».</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Narcisse_Théophile_Patouillard</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Narcisse_Th%C3%A9ophile_Patouillard</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Principales publications</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Doassans, J.E. &amp; Patouillard, N. (1883). Les Champignons figurés et desséchés : Tome 1-2, Paris 1882, 1883.
 Patouillard, N. (1883). Les Champignons comestibles et vénéneux de la flore du Jura. Poligny ; J. Gindre.
 Patouillard, N. (1883). Tabulae Analyticae Fungorum. Descriptions et Analyses Microscopiques des Champignons Nouveaux, Rares ou Critiques, fasc. 1, 232 p. ; ill. n&amp;b, Poligny, France ; Jules Gindre impr.
 Patouillard, N. (1885). Tabulae Analyticae Fungorum. Descriptions et Analyses Microscopiques des Champignons Nouveaux, Rares ou Critiques, Ser.I, fasc. 4 : 137-180, 32 tabs [nos 301-400]. Poligny, France ; Jules Gindre impr.
@@ -564,7 +614,7 @@
 Patouillard, N. (1886). Tabulae analyticae fungorum. Ser.I, fasc. 5 : 181-232, pl. 129-160, Poligny, France ; Jules Gindre impr.
 Patouillard, N. (1886). Quelques champignons de la Chine, récoltés par le père Delavay dans la province du Yunnam. Revue Mycol., Toulouse 8 : 179-182.
 Patouillard, N. (1887). Contribution à l’étude des champignons extra-européens. Bulletin de la Société Mycologique de France 3 : 119-131.
-Patouillard, N. (1887). Note sur quelques champignons de l’herbier du Muséum d’Histoire Naturelle de Paris. Journal de Botanique 1 : 169-[170].
+Patouillard, N. (1887). Note sur quelques champignons de l’herbier du Muséum d’Histoire Naturelle de Paris. Journal de Botanique 1 : 169-.
 Patouillard, N. (1887). Les Hyménomycètes d’Europe. Anatomie et Classification des Champignons Supérieurs (Matériaux pour l’Histoire des Champignons. I). 166 pp., 4 tableaux. Paul Klincksieck, Paris, 1887.
 Patouillard, N. (1888). Quelques espèces nouvelles ou peu connues de champignons extra-européens. Journal de Botanique 2 (9) : 149.
 Patouillard, N. &amp; Gaillard, A. (1888). Champignons du Venezuela et principalement de la région du Haut-Orénoque, récoltés en 1887 par M. A. Gaillard. Bull. Soc. Mycol. France 4 (1) : 7-46.
@@ -614,10 +664,47 @@
 Patouillard, N. (1912). Quelques champignons du Costa Rica. Bull. Trim. Soc. Mycol. France 28 : 140-143.
 Patouillard, N. &amp; Hariot, P. (1912). Fungorum novorum. Decas quarta. Bull. Trim. Soc. Mycol. France 28 : 280-284, 1 planche.
 Patouillard, N. (1913). Quelques champignons de Tonkin. Bull. Trim. Soc. Mycol. France 29 : 206-228.
-Patouillard, N. (1914). Quelques champignons du Congo. Bull. Trim. Soc. Mycol. France 30 : 336-346, 1 planche.
-Principaux taxons publiés par Patouillard
-Genres
-Guepiniopsis Pat. (Dacrymycetaceae), Tabl. analyt. Fung. France (Paris) 1 : 27 (1883)
+Patouillard, N. (1914). Quelques champignons du Congo. Bull. Trim. Soc. Mycol. France 30 : 336-346, 1 planche.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Narcisse_Théophile_Patouillard</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Narcisse_Th%C3%A9ophile_Patouillard</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Principaux taxons publiés par Patouillard</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Genres</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Guepiniopsis Pat. (Dacrymycetaceae), Tabl. analyt. Fung. France (Paris) 1 : 27 (1883)
 Hirsutella Pat. (Clavicipitaceae, Hypocreales) , Revue mycol., Toulouse 14 : 67 (1892)
 Lacrymaria Pat., Hyménomyc. Eur. (Paris) : 122 (1887)
 Leucocoprinus Pat., J. Bot. Morot 2 : 16 (1888)
@@ -626,9 +713,47 @@
 Phaeolus (Pat.) Pat., Essai Tax. Hymén. (Lons-le-Saunier) : 86 (1900)
 Septobasidium Pat. (Septobasidiaceae, Urediniomycetes), J. Bot. Morot 6 : 63 (1892)
 Sirobasidium Pat. (Sirobasidiaceae, Tremellales), in Lagerheim, D. de &amp; Patouillard, N. Sirobasidium, nouveau genre d’Hyménomycètes hétérobasidiés. J. Bot. Morot 6 : 465-469 (1892)
-Spongipellis Pat., Hyménomyc. Eur. (Paris) : 140 (1887)
-Espèces décrites
-Aleurodiscus disciformis (Fries) Patouillard 1894
+Spongipellis Pat., Hyménomyc. Eur. (Paris) : 140 (1887)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Narcisse_Théophile_Patouillard</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Narcisse_Th%C3%A9ophile_Patouillard</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Principaux taxons publiés par Patouillard</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Espèces décrites</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Aleurodiscus disciformis (Fries) Patouillard 1894
 Amauroderma subrugosum (Bresadola &amp; Patouillard) Torrend
 Ascobolus demangei Patouillard
 Bovistella radicata (Durrieu &amp; Montagne) Patouillard
@@ -681,31 +806,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Narcisse_Th%C3%A9ophile_Patouillard</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Narcisse_Théophile_Patouillard</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Narcisse_Th%C3%A9ophile_Patouillard</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Taxons dédiés à Patouillard</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Le plus connu est le vénéneux Inocybe de Patouillard : Inocybe patouillardii Bres. [s.n. « patouillardi »], Annales Mycologici 3(2): 161 (1905).
 Un genre lui fut dédié par Carlo Luigi Spegazzini (1858-1926) :
